--- a/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 20,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 14,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,72; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 13,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,72; 11,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,75; -2,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 12,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 9,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; -0,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,07%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 38,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; 27,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,61; 15,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 20,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,72; 17,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,97; -4,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 21,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,29; 15,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,76; -1,12</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,58; -7,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 13,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,94; -9,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; 0,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,71; 17,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,34; -4,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; -5,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,63; 14,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,97; -9,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,37; -11,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 20,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,27; -14,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 0,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,93; 27,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,93; -6,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,12; -7,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,48; 21,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,25; -13,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 5,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,02; 17,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,23; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 9,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,47; 18,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 3,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 6,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,26; 16,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,33; 0,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 10,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,46; 30,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,6; 1,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 16,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,0; 31,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,19; 6,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 11,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,93; 28,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,69; 1,45</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 7,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,05; 28,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 8,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 9,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,31; 28,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 18,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 6,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,49; 27,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 12,61</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 15,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,8; 53,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 15,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 17,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,48; 52,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 31,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 12,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,54; 50,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 22,89</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 12,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 13,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,37; 2,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,62; 17,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 15,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; 1,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,92; 13,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,17; 13,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 0,48</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,63; 21,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,72; 24,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,07; 3,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,92; 31,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,63; 27,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,49; 2,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,28; 24,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,91; 23,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 0,86</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 3,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,95; 15,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; -1,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 7,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,68; 17,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 2,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 5,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,37; 15,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; -0,88</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,12%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 5,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 26,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; -3,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,19; 13,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 28,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 3,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 8,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,85; 26,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; -1,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-15,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,3</t>
+          <t>-11,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>-13,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 20,14</t>
+          <t>-15,06; -4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 14,83</t>
+          <t>1,91; 12,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 8,79</t>
+          <t>-21,94; -10,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 13,13</t>
+          <t>-9,51; 1,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 11,08</t>
+          <t>5,97; 15,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -2,77</t>
+          <t>-15,88; -6,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 12,87</t>
+          <t>-10,31; -3,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 9,77</t>
+          <t>5,46; 12,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -0,63</t>
+          <t>-17,54; -9,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,17%</t>
+          <t>-17,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>-10,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>-20,33%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 38,73</t>
+          <t>-21,86; -7,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 27,55</t>
+          <t>2,76; 18,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 15,42</t>
+          <t>-31,46; -16,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 20,67</t>
+          <t>-13,66; 1,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 17,32</t>
+          <t>8,52; 23,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,97; -4,47</t>
+          <t>-22,93; -10,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 21,04</t>
+          <t>-15,17; -5,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 15,99</t>
+          <t>7,92; 18,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,76; -1,12</t>
+          <t>-25,34; -15,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,54</t>
+          <t>-14,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>14,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,29</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,84</t>
+          <t>-8,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,58; -7,31</t>
+          <t>-3,01; 5,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 13,36</t>
+          <t>9,02; 17,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -9,7</t>
+          <t>-35,53; -1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 0,38</t>
+          <t>0,97; 9,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 17,32</t>
+          <t>10,47; 18,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -4,43</t>
+          <t>-5,44; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -5,03</t>
+          <t>0,36; 6,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,15</t>
+          <t>11,26; 16,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -9,02</t>
+          <t>-24,28; -0,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,34%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-24,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,38%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>-14,16%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,37; -11,45</t>
+          <t>-4,79; 10,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 20,51</t>
+          <t>14,46; 30,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -14,66</t>
+          <t>-59,88; -1,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 0,56</t>
+          <t>1,46; 16,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 27,46</t>
+          <t>16,0; 31,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,93; -6,92</t>
+          <t>-8,43; 5,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -7,6</t>
+          <t>0,56; 11,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 21,53</t>
+          <t>17,93; 28,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,25; -13,54</t>
+          <t>-41,01; -1,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>24,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>23,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,09</t>
+          <t>24,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>5,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,89</t>
+          <t>-2,32; 7,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 17,75</t>
+          <t>19,05; 28,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,68</t>
+          <t>-3,79; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,92</t>
+          <t>-1,4; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 18,69</t>
+          <t>19,31; 28,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,83</t>
+          <t>-5,1; 24,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,66</t>
+          <t>-0,83; 6,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,92</t>
+          <t>20,49; 27,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,9</t>
+          <t>-1,71; 18,77</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,72%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 10,35</t>
+          <t>-3,96; 15,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 30,65</t>
+          <t>31,8; 53,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 1,25</t>
+          <t>-6,51; 14,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 16,53</t>
+          <t>-2,34; 17,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 31,21</t>
+          <t>31,48; 52,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,45</t>
+          <t>-8,7; 43,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 11,18</t>
+          <t>-1,41; 12,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,33</t>
+          <t>34,54; 50,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 1,45</t>
+          <t>-3,04; 33,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,11</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,94</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,03</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-5,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,99</t>
+          <t>3,53; 12,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,05; 28,73</t>
+          <t>4,95; 13,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 8,54</t>
+          <t>-9,43; 0,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,33</t>
+          <t>9,62; 17,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,31; 28,59</t>
+          <t>6,52; 15,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 18,1</t>
+          <t>-19,04; -1,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,95</t>
+          <t>7,92; 13,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,45</t>
+          <t>7,17; 13,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 12,61</t>
+          <t>-12,03; -2,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-11,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>-9,8%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 15,17</t>
+          <t>5,63; 21,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,8; 53,41</t>
+          <t>7,72; 24,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 15,83</t>
+          <t>-15,27; 0,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 17,03</t>
+          <t>15,92; 31,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,48; 52,34</t>
+          <t>10,63; 27,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 31,87</t>
+          <t>-32,79; -2,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 12,46</t>
+          <t>13,28; 24,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,54; 50,07</t>
+          <t>11,91; 23,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 22,89</t>
+          <t>-19,99; -4,15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-5,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,28</t>
+          <t>-1,0; 3,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,77</t>
+          <t>10,95; 15,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 2,24</t>
+          <t>-21,71; -3,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,89</t>
+          <t>3,27; 7,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,52; 15,1</t>
+          <t>12,68; 17,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 1,37</t>
+          <t>-7,01; 5,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,83</t>
+          <t>1,79; 5,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,44</t>
+          <t>12,37; 15,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,48</t>
+          <t>-11,8; -2,11</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-9,48%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,63; 21,4</t>
+          <t>-1,66; 5,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,72; 24,32</t>
+          <t>17,75; 26,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 3,85</t>
+          <t>-35,55; -6,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,92; 31,99</t>
+          <t>5,19; 13,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,63; 27,04</t>
+          <t>20,29; 28,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 2,41</t>
+          <t>-11,25; 9,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,28; 24,16</t>
+          <t>2,91; 8,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,91; 23,63</t>
+          <t>19,85; 26,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,86</t>
+          <t>-19,32; -3,45</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>13,24</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,33</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>14,85</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>14,06</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 3,52</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>10,95; 15,41</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; -1,78</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 7,91</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>12,68; 17,03</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 2,32</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 5,08</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>12,37; 15,65</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; -0,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>21,82%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-7,13%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>24,24%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-3,39%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>23,06%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-5,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 5,88</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>17,75; 26,05</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; -3,0</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 13,07</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>20,29; 28,5</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 3,85</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 8,43</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>19,85; 26,0</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; -1,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -4,69</t>
+          <t>-15,34; -4,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 12,06</t>
+          <t>1,52; 11,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -10,65</t>
+          <t>-21,81; -10,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,14</t>
+          <t>-9,06; 1,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,47</t>
+          <t>5,7; 15,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -6,79</t>
+          <t>-16,14; -6,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -3,08</t>
+          <t>-10,65; -3,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,2</t>
+          <t>5,15; 12,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -9,92</t>
+          <t>-17,22; -10,07</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -7,29</t>
+          <t>-21,84; -7,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 18,82</t>
+          <t>2,2; 17,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,46; -16,24</t>
+          <t>-31,81; -16,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 1,65</t>
+          <t>-13,01; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 23,71</t>
+          <t>8,27; 23,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,93; -10,34</t>
+          <t>-23,15; -10,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,17; -5,02</t>
+          <t>-15,41; -4,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 18,72</t>
+          <t>7,42; 18,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -15,32</t>
+          <t>-25,13; -15,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,89</t>
+          <t>-2,79; 6,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 17,75</t>
+          <t>8,99; 17,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,53; -1,03</t>
+          <t>-36,09; -1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,92</t>
+          <t>1,07; 9,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 18,69</t>
+          <t>11,02; 19,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 3,06</t>
+          <t>-5,59; 3,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,66</t>
+          <t>0,21; 6,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,92</t>
+          <t>11,25; 17,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,28; -0,84</t>
+          <t>-24,96; -0,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 10,35</t>
+          <t>-4,55; 11,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 30,65</t>
+          <t>14,29; 30,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,88; -1,8</t>
+          <t>-58,72; -1,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 16,53</t>
+          <t>1,67; 16,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 31,21</t>
+          <t>16,95; 31,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 5,14</t>
+          <t>-8,58; 5,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 11,18</t>
+          <t>0,32; 11,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,33</t>
+          <t>17,68; 28,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -1,52</t>
+          <t>-41,01; -1,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,99</t>
+          <t>-2,62; 7,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,05; 28,73</t>
+          <t>19,0; 28,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 8,04</t>
+          <t>-3,31; 8,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,33</t>
+          <t>-1,11; 8,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,31; 28,59</t>
+          <t>19,02; 28,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 24,37</t>
+          <t>-5,27; 25,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,95</t>
+          <t>-0,85; 6,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,45</t>
+          <t>20,73; 27,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 18,77</t>
+          <t>-1,89; 19,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 15,17</t>
+          <t>-4,21; 14,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,8; 53,41</t>
+          <t>31,72; 53,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 14,79</t>
+          <t>-5,58; 15,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 17,03</t>
+          <t>-1,83; 16,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,48; 52,34</t>
+          <t>31,09; 51,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 43,61</t>
+          <t>-8,94; 45,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 12,46</t>
+          <t>-1,34; 12,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,54; 50,07</t>
+          <t>34,61; 49,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 33,41</t>
+          <t>-3,2; 34,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,28</t>
+          <t>3,08; 12,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,77</t>
+          <t>5,12; 13,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 0,37</t>
+          <t>-9,34; 0,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,89</t>
+          <t>9,35; 17,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 15,1</t>
+          <t>7,56; 15,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -1,5</t>
+          <t>-18,13; -1,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,83</t>
+          <t>7,79; 14,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,44</t>
+          <t>7,47; 13,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -2,4</t>
+          <t>-11,7; -1,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,63; 21,4</t>
+          <t>5,03; 21,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,72; 24,32</t>
+          <t>8,31; 24,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 0,63</t>
+          <t>-15,28; 0,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,92; 31,99</t>
+          <t>15,53; 32,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,63; 27,04</t>
+          <t>12,63; 28,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,79; -2,92</t>
+          <t>-30,49; -2,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,28; 24,16</t>
+          <t>13,01; 24,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,91; 23,63</t>
+          <t>12,31; 23,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,99; -4,15</t>
+          <t>-20,06; -3,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,52</t>
+          <t>-1,08; 3,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,41</t>
+          <t>10,82; 15,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -3,98</t>
+          <t>-20,79; -3,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,91</t>
+          <t>3,04; 7,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,03</t>
+          <t>12,67; 17,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,47</t>
+          <t>-6,84; 4,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,08</t>
+          <t>1,92; 5,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,65</t>
+          <t>12,5; 15,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -2,11</t>
+          <t>-11,64; -1,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,88</t>
+          <t>-1,76; 6,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,05</t>
+          <t>17,41; 26,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-35,55; -6,56</t>
+          <t>-34,38; -6,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,07</t>
+          <t>4,84; 13,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,5</t>
+          <t>20,23; 28,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 9,12</t>
+          <t>-11,06; 7,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,43</t>
+          <t>3,11; 8,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,85; 26,0</t>
+          <t>20,15; 26,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -3,45</t>
+          <t>-19,03; -3,2</t>
         </is>
       </c>
     </row>
